--- a/Temenos.xlsx
+++ b/Temenos.xlsx
@@ -5,28 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bachelorarbeit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvi\OneDrive\Desktop\Coding\giongion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1461D63-E000-498B-8BEF-AD2B0038563C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC4079-ACEA-4295-BF96-E88592999275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" firstSheet="2" activeTab="3" xr2:uid="{917B03BB-9AC6-47C1-A01F-7CA6C1D79E36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" activeTab="1" xr2:uid="{917B03BB-9AC6-47C1-A01F-7CA6C1D79E36}"/>
   </bookViews>
   <sheets>
-    <sheet name="Training (2)" sheetId="12" r:id="rId1"/>
-    <sheet name="Compensation (2)" sheetId="11" r:id="rId2"/>
-    <sheet name="Collective bargaining (2)" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="training1" sheetId="12" r:id="rId1"/>
+    <sheet name="compensation1" sheetId="11" r:id="rId2"/>
+    <sheet name="collective bargaining1" sheetId="10" r:id="rId3"/>
+    <sheet name="characteristics1" sheetId="9" r:id="rId4"/>
     <sheet name="Characteristics" sheetId="1" r:id="rId5"/>
     <sheet name="Collective bargaining" sheetId="2" r:id="rId6"/>
     <sheet name="Compensation" sheetId="3" r:id="rId7"/>
     <sheet name="Training" sheetId="4" r:id="rId8"/>
-    <sheet name="health and safety" sheetId="5" r:id="rId9"/>
-    <sheet name="work life balance" sheetId="6" r:id="rId10"/>
+    <sheet name="Health and Safety" sheetId="5" r:id="rId9"/>
+    <sheet name="Work Life Balance" sheetId="6" r:id="rId10"/>
     <sheet name="Human Rights" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="429">
   <si>
     <t>STT</t>
   </si>
@@ -580,60 +579,15 @@
     <t>Management of career endings resulting from retirement or termination of employment</t>
   </si>
   <si>
-    <t>… broken down between employees and non-employees in the undertaking’s own workforce</t>
-  </si>
-  <si>
-    <t>… with regard to others working on the undertaking’s sites, such as value chain workers…</t>
-  </si>
-  <si>
-    <t>Number of fatalities as a result of work-related injuries</t>
-  </si>
-  <si>
-    <t>Number of fatalities as a result of work-related ill-health</t>
-  </si>
-  <si>
-    <t>rate of high-consequence work-related injuries (excl. fatalities) for non-employee workers (with calculation basis 200,000/1,000,000)</t>
-  </si>
-  <si>
     <t>number of recordable work-related accidents</t>
   </si>
   <si>
-    <t>number of recordable work-related accidents breakdown between employees and non-employees in the undertaking’s own workforce</t>
-  </si>
-  <si>
-    <t>rate of recordable work-related accidents (injuries) (per 200,000 working hours)</t>
-  </si>
-  <si>
-    <t>rate of recordable work-related accidents (injuries) (per 1,000,000 working hours)</t>
-  </si>
-  <si>
-    <t>rate of recordable work-related accidents (injuries), where applicable broken down between employees and non-employees in the undertaking’s own workforce (per 200,000 working hours)</t>
-  </si>
-  <si>
-    <t>rate of recordable work-related accidents (injuries), where applicable broken down between employees and non-employees in the undertaking’s own workforce (per 1,000,000 working hours)</t>
-  </si>
-  <si>
-    <t>number of cases of recordable work-related ill health, subject to legal restrictions on the collection of data with regard to the undertaking’s employees</t>
-  </si>
-  <si>
-    <t>number of cases of recordable work-related ill health, subject to legal restrictions on the collection of data with regard to the undertaking’s non-employees</t>
-  </si>
-  <si>
-    <t>number of days lost to work-related injuries and fatalities from work-related accidents, work-related ill health and fatalities from ill health with regard to the undertaking’s employees</t>
-  </si>
-  <si>
-    <t>number of days lost to work-related injuries and fatalities from work-related accidents, work-related ill health and fatalities from ill health with regard to the undertaking’s non-employees</t>
-  </si>
-  <si>
     <t>whether and, if so, why any workers have been excluded from this disclosure (of work-related injuries)</t>
   </si>
   <si>
     <t>if any workers have been excluded from the disclosure (of work-related injuries), the types of workers excluded</t>
   </si>
   <si>
-    <t>any contextual information necessary to understand how the data regarding work-related injuries (GRI 403-9) have been compiled, such as any standards, methodologies, and assumptions used</t>
-  </si>
-  <si>
     <t>main types of work-related injury for employees</t>
   </si>
   <si>
@@ -655,88 +609,16 @@
     <t>whether and, if so, why any workers have been excluded from this disclosure (of work-related ill-health)</t>
   </si>
   <si>
-    <t>if any workers have been excluded from the disclosure of work-related ill-health, the types of workers excluded</t>
-  </si>
-  <si>
-    <t>any contextual information necessary to understand how the data regarding work-related ill-health (GRI 403-10) have been compiled, such as any standards, methodologies, and assumptions used</t>
-  </si>
-  <si>
-    <t>Whether all of the undertaking’s employees are entitled to family-related leave (maternity, paternity, parental or career’s leave) through social policy and/or collective bargaining agreements</t>
-  </si>
-  <si>
-    <t>Percentage of employees entitled to take family-related leave, if not all of the undertaking’s employees are entitled</t>
-  </si>
-  <si>
-    <t>Percentage of entitled employees that took family-related leave</t>
-  </si>
-  <si>
-    <t>Percentage of entitled employees that took family-related leave broken down by gender</t>
-  </si>
-  <si>
-    <t>Total number of employees entitled to parental leave</t>
-  </si>
-  <si>
-    <t>Total number of employees entitled to parental leave, broken down by gender</t>
-  </si>
-  <si>
-    <t>Total number of employees that took parental leave</t>
-  </si>
-  <si>
-    <t>Total number of employees that took parental leave, broken down by gender</t>
-  </si>
-  <si>
-    <t>Total number of employees that returned to work in the reporting period after parental leave ended</t>
-  </si>
-  <si>
-    <t>Total number of employees that returned to work in the reporting period after parental leave ended, broken down by gender</t>
-  </si>
-  <si>
-    <t>Total number of employees that returned to work after parental leave ended that were still employed 12 months after their return to work</t>
-  </si>
-  <si>
-    <t>Total number of employees that returned to work after parental leave ended that were still employed 12 months after their return to work, broken down by gender</t>
-  </si>
-  <si>
-    <t>Rate of employees that returned to work in the reporting period after parental leave ended</t>
-  </si>
-  <si>
-    <t>Rate of employees that returned to work in the reporting period after parental leave ended, broken down by gender</t>
-  </si>
-  <si>
-    <t>Rate of employees that returned to work in the reporting period after parental leave ended that were still employed 12 months after their return to work</t>
-  </si>
-  <si>
-    <t>Rate of employees that returned to work in the reporting period after parental leave ended that were still employed 12 months after their return to work, broken down by gender</t>
-  </si>
-  <si>
-    <t>Benefits which are standard for full-time employees of the organization but are not provided to temporary or part-time employees, by significant locations of operation</t>
-  </si>
-  <si>
-    <t>How a ‘significant location of operation’ is defined for 401-2a</t>
-  </si>
-  <si>
     <t>total number of incidents of discrimination (including harassment) reported in the reporting period</t>
   </si>
   <si>
-    <t>number of complaints filed through channels for people in the undertaking’s own workforce to raise concerns (including grievance mechanisms), excluding those already reported as incidents of discrimination</t>
-  </si>
-  <si>
     <t>number of complaints filed to the National Contact Points for OECD Multinational Enterprises related to working conditions, equal treatment and opportunities for all and other work-related rights</t>
   </si>
   <si>
     <t>total amount of fines, penalties and compensation for damages as a result of the incidents and complaints reported</t>
   </si>
   <si>
-    <t>a reconciliation of monetary amounts (fines, penalties and compensation for damages) as a result of incidents and complaints reported disclosed with the most relevant amount presented in the financial statements</t>
-  </si>
-  <si>
     <t>contextual information necessary to understand the data regarding work-related incidents, complaints and severe human rights impacts and how it has been compiled</t>
-  </si>
-  <si>
-    <t>number of severe human rights incidents connected to the undertaking’s workforce in the reporting period</t>
-  </si>
-  <si>
-    <t>an indication of how many of these severe human rights incidents are cases of non-respect of the UN Guiding Principles on Business and Human Rights, ILO Declaration on Fundamental Principles and Rights at Work or OECD Guidelines for Multinational Enterprises</t>
   </si>
   <si>
     <t>total amount of fines, penalties and compensation for damages for incidents that are cases on non-respect of the UN Guiding Principles on Business and Human Rights, ILO Declaration on Fundamental Principles and Rights at Work or OECD Guidelines for Multinational Enterprises</t>
@@ -949,12 +831,6 @@
 Management Board: female 0.30, male 0.70</t>
   </si>
   <si>
-    <t>rational for change your base here</t>
-  </si>
-  <si>
-    <t>outside the European Economic Area (EEA); percentage of its own employees covered by collective bargaining agreements, by coverage rate and region bargaining agreements, by coverage rate (0–19%, 20–39%, 40–59%, 60–79%, 80–100%) and region</t>
-  </si>
-  <si>
     <t>description of whether the undertaking determines the working conditions and terms of employment of employees not covered by collective bargaining agreements based on collective bargaining agreements that cover its other employees or based on collective bargaining agreements from other undertakings</t>
   </si>
   <si>
@@ -964,45 +840,18 @@
     <t>global percentage of employees covered at the establishment level by workers’ representatives, reported at the country level for each EEA country in which the undertaking has significant employment by coverage rate (0-19%, 20-39%, 40-59%, 60-79%, 80-100%) and country</t>
   </si>
   <si>
-    <t>minimum number of weeks’ notice typically provided to employees and their representatives prior to the implementation of significant operational changes that could substantially affect them</t>
-  </si>
-  <si>
-    <t>number of severe human rights incidents where the undertaking played a role securing remedy for those affected</t>
-  </si>
-  <si>
     <t>If applicable, a provision of contextual information necessary to understand the employee data (e.g. to understand fluctuations in number of employees during the reporting period)</t>
   </si>
   <si>
-    <t>any contextual information necessary to understand the 'disability' data and how it has been compiled (methodology) (e.g. information about the impact of different legal definitions of persons with disabilities in the different countries in which the undertaking has operations)</t>
-  </si>
-  <si>
     <t>percentage of persons with disabilities amongst its employees subject to legal restrictions on the collection of data</t>
   </si>
   <si>
-    <t>For the European Economic Area (EEA): whether it has one or more collective bargaining agreements (The undertaking should state if it has collective bargaining agreements inside the European Economic Area (EAA) or if it has not)</t>
-  </si>
-  <si>
-    <t>Disclosure whether all its employees are paid an adequate wage, in line with applicable benchmarks ("More Terms to look for: 'adequate wage'; 'minimal wage'; 'minimum wage'; 'living wage'; 'fair wage)</t>
-  </si>
-  <si>
     <t>gender pay gap (difference of average pay levels between female and male employees) as percentage of the average pay level of male employees</t>
   </si>
   <si>
-    <t>If any workers have been excluded from the disclosure (of a health and safety management system), the types of workers excluded</t>
-  </si>
-  <si>
     <t>any contextual information necessary to understand how the data regarding the health and safety management system (GRI 403.8) have been compiled, such as any standards, methodologies, and assumptions used.</t>
   </si>
   <si>
-    <t>Number of fatalities as a result of work-related injuries and work-related ill-health (Do’s:
-Record a corresponding value which includes injuries (accidents) and ill-health
-Don’ts:
-Do not record a value if its not stated that ill-health is included as well)</t>
-  </si>
-  <si>
-    <t>Rate of fatalities as a result of work-related injuries</t>
-  </si>
-  <si>
     <t>number of fatalities as a result of work-related injuries, where applicable broken down between employees and non-employees in the undertaking's own workforce</t>
   </si>
   <si>
@@ -1024,24 +873,9 @@
     <t>number of high-consequence work-related injuries (excl. fatalities) for non-employee workers</t>
   </si>
   <si>
-    <t>rate of high-consequence work-related injuries (excl. fatalities) for employees (with calculation basis 200,000/1,000,000)</t>
-  </si>
-  <si>
-    <t>If applicable, a provision of contextual information necessary to understand the non-employee data (e.g., significant fluctuations in the number of non-employees in the undertaking’s own workforce during the reporting period and between the current and the previous reporting period).</t>
-  </si>
-  <si>
-    <t>gender distribution at top management (The standard definition of top management is "one and two levels below the administrative and supervisory bodies) in the reporting period, in percentage</t>
-  </si>
-  <si>
     <t>disclosure of the own definition for top management, if the undertaking has already defined the concept and it differs from the definition of one and two levels below the administrative and supervisory bodies</t>
   </si>
   <si>
-    <t>percentage of individuals within the organization's governance bodies (committee or board responsible for the strategic guidance of the organization, the effective monitoring of management, and the accountability of management to the broader organization and its stakeholders such as board of directors, management committee or similar body for a non-corporate organization) by gender</t>
-  </si>
-  <si>
-    <t>percentage of employees per function( such as technical, administrative, production) and by gender</t>
-  </si>
-  <si>
     <t>transition assistance programs provided to facilitate continued employability (such as retraining for those intending to continue working; job placement services)</t>
   </si>
   <si>
@@ -1051,21 +885,12 @@
     <t>percentage of own workforce covered by the health and safety management of the company based on legal requirements, recognised standards or guidelines (in headcount)</t>
   </si>
   <si>
-    <t>where applicable the percentage of own workforce who are covered by the undertaking’s health and safety management based on legal requirements and/or recognised standards or guidelines (in headcount), broken down between employees and non-employees in the undertaking’s own workforce</t>
-  </si>
-  <si>
     <t>internally audited percentage of own workforce covered by a health and safety management system based on legal requirements, recognised standards or guidelines</t>
   </si>
   <si>
-    <t>externally audited percentage of own workforce covered by a health and safety management system based on legal requirements, recognised standards or guidelines</t>
-  </si>
-  <si>
     <t>externally certified percentage of own workforce covered by a health and safety management system based on legal requirements, recognised standards or guidelines</t>
   </si>
   <si>
-    <t>number of people in its workforce who are covered by the undertaking’s health and safety management system based on legal requirements and/or recognised standards or guidelines</t>
-  </si>
-  <si>
     <t>number of people in its workforce who are covered by a health and safety management system which is based on legal requirements and/or recognised standards or guidelines and which has been internally audited</t>
   </si>
   <si>
@@ -1184,6 +1009,333 @@
   </si>
   <si>
     <t>desciption of the relationship with the undertaking of non-employees</t>
+  </si>
+  <si>
+    <t>disclosure whether the non-employee numbers are reported in head count or full-time equivalent (FTE) (including an explanation of how FTE is defined)</t>
+  </si>
+  <si>
+    <t>disclosure whether the non-employee numbers are reported at the end of the reporting period; as an average across the reporting period; or using another methodology</t>
+  </si>
+  <si>
+    <t>if applicable, a provision of contextual information necessary to understand the non-employee data (e.g. significant fluctuations in the number of non-employees in the undertaking’s own workforce during the reporting period and between the current and the previous reporting period)</t>
+  </si>
+  <si>
+    <t>percentage of employees per level (such as: senior, middle management) and by age group (&lt;30 years old; 30-50 years old; &gt; 50 years old)</t>
+  </si>
+  <si>
+    <t>percentage of employees per function (such as technical, administrative, production) and by age group (&lt;30 years old; 30-50 years old; &gt; 50 years old)</t>
+  </si>
+  <si>
+    <t>percentage of individuals within the organization's governance bodies (committee or board responsible for the strategic guidance of the organization, the effective monitoring of management, and the accountability of management to the broader organization and itspercentage of individuals within the organization's governance bodies (committee or board responsible for the strategic guidance of the organization, the effective monitoring of management, and the accountability of management to the broader organization and its stakeholders such as board of directors, management committee or similar body for a non-corporate organization) by gender stakeholders such as board of directors, management committee or similar body for a non-corporate organization) by gender</t>
+  </si>
+  <si>
+    <t>percentage of individuals within the organization's governance bodies (committee or board responsible for the strategic guidance of the organization, the effective monitoring of management, and the accountability of management to the broader organization and its stakeholders such as board of directors, management committee or similar body for a non-corporate organization) by age group (&lt;30, 30-50, &gt;50)</t>
+  </si>
+  <si>
+    <t>percentage of individuals within the organization's governance bodies (committee or board responsible for the strategic guidance of the organization, the effective monitoring of management, and the accountability of management to the broader organization and its stakeholders such as board of directors, management committee or similar body for a non-corporate organization) by other indicators of diversity (such as minority or vulnerable group)</t>
+  </si>
+  <si>
+    <t>percentage of employees per level (such as: senior, middle management) and by gender</t>
+  </si>
+  <si>
+    <t>percentage of employees per function (such as technical, administrative, production) and by gender</t>
+  </si>
+  <si>
+    <t>percentage of employees per level (such as: senior, middle management) and by other indicators of diversity (such as minority or vulnerable group)</t>
+  </si>
+  <si>
+    <t>percentage of employees per function (such as technical, administrative, production) and by other indicators of diversity (such as minority or vulnerable group)</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand the "disability" data and how it has been compiled (methodology) (e.g. information about the impact of different legal definitions of persons with disabilities in the different countries in which the undertaking has operations)</t>
+  </si>
+  <si>
+    <t>percentage of total employees covered by collective bargaining agreements ((number of employees covered by collective bargaining agreements)/(number of employees)*100)</t>
+  </si>
+  <si>
+    <t>for the European Economic Area (EEA): whether it has one or more collective bargaining agreements</t>
+  </si>
+  <si>
+    <t>inside the European Economic Area (EEA): for each country in which it has significant employment (at least 50 employees by head count representing at least 10% of its total number of employees): percentage of its employees covered by collective bargaining agreements by coverage rate (0-19%, 20-39%, 40-59%, 60-79%, 80-100%) and country</t>
+  </si>
+  <si>
+    <t>outside the European Economic Area (EEA): percentage of its own employees covered by collective bargaining agreements, by coverage rate (0-19%, 20-39%, 40-59%, 60-79%, 80-100%) and region</t>
+  </si>
+  <si>
+    <t>the existence of any agreement with its employees for representation by a European Works Council (EWC), an Societas Europaea (SE) Works Council, or an Societas Cooperativa Europaea (SCE) Works Council</t>
+  </si>
+  <si>
+    <t>minimum number of weeks' notice typically provided to employees and their representatives prior to the implementation of significant operational changes that could substantially affect them</t>
+  </si>
+  <si>
+    <t>if the organization has a collective bargaining agreement, a report whether the notice period and provisions for consultation and negotiation are specified in collective agreements</t>
+  </si>
+  <si>
+    <t>if not all employees are paid an adequate wage in line with applicable benchmarks, disclosure of concerned countries with the respective percentages of employees that earn below the applicable adequate wage benchmark</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are paid an adequate wage, in line with applicable benchmarks</t>
+  </si>
+  <si>
+    <t>if not all non-employees are paid an adequate wage in line with applicable benchmarks, disclosure of concerned countries with the respective percentages of non-employees that earn below the applicable adequate wage benchmark</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are covered by social protection against loss of income due to sickness through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are covered by social protection against loss of income due to unemployment starting from when the own worker is working for the undertaking through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are covered by social protection against loss of income due to employment injury and acquired disability through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are covered by social protection against loss of income due to parental leave through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are covered by social protection against loss of income due to retirement through public or private programs</t>
+  </si>
+  <si>
+    <t>if not all employees are covered by social protection, disclosure of concerned countries with the respective types of employees that do not have social protection regarding to one or more types of life events (sickness, unemployment starting from when the own worker is working for the company, employment injury and acquired disability, parental leave, retirement)</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are covered by social protection against loss of income due to sickness through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are covered by social protection against loss of income due to unemployment starting from when the own worker is working for the undertaking through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are covered by social protection against loss of income due to employment injury and acquired disability through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are covered by social protection against loss of income due to parental leave through public or private programs</t>
+  </si>
+  <si>
+    <t>disclosure whether all its non-employees are covered by social protection against loss of income due to retirement through public or private programs</t>
+  </si>
+  <si>
+    <t>if not all non-employees are covered by social protection, disclosure of concerned countries with the respective types of non-employees that do not have social protection regarding to one or more types of life events (sickness, unemployment starting from when the own worker is working for the company, employment injury and acquired disability, parental leave, retirement)</t>
+  </si>
+  <si>
+    <t>annual total remuneration ratio of the highest paid individual to the median annual total remuneration for all employees (excluding the highest paid individual)</t>
+  </si>
+  <si>
+    <t>ratio of the percentage increase in annual total compensation for the organization’s highest-paid individual to the median percentage increase in annual total compensation for all employees (excluding the highest-paid individual)</t>
+  </si>
+  <si>
+    <t>gender pay gap by level (such as senior management, middle management)</t>
+  </si>
+  <si>
+    <t>gender pay gap by function (such as technical, administrative, production)</t>
+  </si>
+  <si>
+    <t>gender pay gap between employees by level (such as senior management, middle management) broken down by ordinary basic salary</t>
+  </si>
+  <si>
+    <t>gender pay gap between employees by function (such as technical, administrative, production) broken down by ordinary basic salary</t>
+  </si>
+  <si>
+    <t>ratio of the basic salary of women to men for each level (such as: senior, middle management) , by significant locations of operation</t>
+  </si>
+  <si>
+    <t>ratio of the basic salary of women to men for each function (such as technical, administrative, production) , by significant locations of operation</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand the "gender pay gap" data and how it has been compiled (methodology)</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand other changes to the underlying "gender pay gap" data that are to be considered</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand the "renumeration" data and how it has been compiled (methodology)</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand other changes to the underlying "renumeration" data that are to be considered</t>
+  </si>
+  <si>
+    <t>percentage of employees that participated in regular performance and career development reviews</t>
+  </si>
+  <si>
+    <t>percentage of employees that participated in regular performance and career development reviews, broken down by function (such as technical, administrative, production)</t>
+  </si>
+  <si>
+    <t>percentage of employees that participated in regular performance and career development reviews, broken down by level (such as senior management, middle management)</t>
+  </si>
+  <si>
+    <t>percentage of employees that participated in regular performance and career development reviews, broken down by gender</t>
+  </si>
+  <si>
+    <t>average number of training hours per employee</t>
+  </si>
+  <si>
+    <t>average number of training hours per employee breakdown by level (such as senior management, middle management)</t>
+  </si>
+  <si>
+    <t>average number of training hours per employee breakdown by function (such as technical, administrative, production)</t>
+  </si>
+  <si>
+    <t>average number of training hours per employee by gender</t>
+  </si>
+  <si>
+    <t>percentage of non-employees that participated in regular performance and career development reviews, broken down by level (such as senior management, middle management)</t>
+  </si>
+  <si>
+    <t>percentage of non-employees that participated in regular performance and career development reviews, broken down by function (such as technical, administrative, production)</t>
+  </si>
+  <si>
+    <t>percentage of non-employees that participated in regular performance and career development reviews, broken down by gender</t>
+  </si>
+  <si>
+    <t>average number of training hours per non-employee</t>
+  </si>
+  <si>
+    <t>average number of training hours per non-employee breakdown by level (such as senior management, middle management)</t>
+  </si>
+  <si>
+    <t>average number of training hours per non-employee breakdown by function (such as technical, administrative, production)</t>
+  </si>
+  <si>
+    <t>average number of training hours per non-employee by gender</t>
+  </si>
+  <si>
+    <t>type and scope of programs implemented and assistance provided to upgrade employee skills</t>
+  </si>
+  <si>
+    <t>where applicable the percentage of own workforce who are covered by the undertaking's health and safety management based on legal requirements and/or recognised standards or guidelines (in headcount), broken down between employees and non-employees in the undertaking's own workforce</t>
+  </si>
+  <si>
+    <t>number of people in its workforce who are covered by the undertaking's health and safety management system based on legal requirements and/or recognised standards or guidelines</t>
+  </si>
+  <si>
+    <t>if any workers have been excluded from the disclosure (of a health and safety management system), the types of workers excluded</t>
+  </si>
+  <si>
+    <t>number of fatalities as a result of work-related injuries and work-related ill-health</t>
+  </si>
+  <si>
+    <t>number of fatalities as a result of work-related injuries and work-related ill-health, where applicable broken down between employees and non-employees in the undertaking's own workforce</t>
+  </si>
+  <si>
+    <t>number of fatalities as a result of work-related injuries and work-related ill-health with regard to others workers working on the undertaking's sites, such as value chain workers if they are working on the undertaking's sites</t>
+  </si>
+  <si>
+    <t>number of fatalities as a result of work-related injuries</t>
+  </si>
+  <si>
+    <t>number of fatalities as a result of work-related ill health</t>
+  </si>
+  <si>
+    <t>rate of fatalities as a result of work-related injuries for employees (with calculation basis 200.000/1.000.000)</t>
+  </si>
+  <si>
+    <t>rate of high-consequence work-related injuries (excl. fatalities) for employees (with calculation basis 200.000/1.000.000)</t>
+  </si>
+  <si>
+    <t>rate of high-consequence work-related injuries (excl. fatalities) for non-employee workers (with calculation basis 200.000/1.000.000)</t>
+  </si>
+  <si>
+    <t>number of recordable work-related accidents breakdown between employees and non-employees in the undertaking's own workforce</t>
+  </si>
+  <si>
+    <t>rate of recordable work-related accidents (injurys) (per 200.000 working hours)</t>
+  </si>
+  <si>
+    <t>rate of recordable work-related accidents (injuries) (per 1.000.000 working hours)</t>
+  </si>
+  <si>
+    <t>rate of recordable work-related accidents (injurys), where applicable broken down between employees and non-employees in the undertaking's own workforce (per 200.000 working hours)</t>
+  </si>
+  <si>
+    <t>rate of recordable work-related accidents (injuries), where applicable broken down between employees and non-employees in the undertaking's own workforce (per 1.000.000 working hours)</t>
+  </si>
+  <si>
+    <t>number of cases of recordable work-related ill health, subject to legal restrictions on the collection of data with regard to the undertaking's employees</t>
+  </si>
+  <si>
+    <t>number of cases of recordable work-related ill health, subject to legal restrictions on the collection of data with regard to the undertaking's non-employees</t>
+  </si>
+  <si>
+    <t>number of days lost to work-related injuries and fatalities from work-related accidents, work-related ill health and fatalities from ill health with regard to the undertaking's employees</t>
+  </si>
+  <si>
+    <t>number of days lost to work-related injuries and fatalities from work-related accidents, work-related ill health and fatalities from ill health with regard to the undertaking's non-employees</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand how the data regarding work-related injuries (GRI 403.9) have been compiled, such as any standards, methodologies, and assumptions used.</t>
+  </si>
+  <si>
+    <t>if any workers have been excluded from the disclosure (of work-related ill-health), the types of workers excluded</t>
+  </si>
+  <si>
+    <t>any contextual information necessary to understand how the data regarding work-related ill-health (GRI 403.10) have been compiled, such as any standards, methodologies, and assumptions used.</t>
+  </si>
+  <si>
+    <t>whether all of the undertaking’s employees are entitled to family-related leave (maternity, paternity, parental or career’s leave) through social policy and/or collective bargaining agreements</t>
+  </si>
+  <si>
+    <t>percentage of employees entitled to take family-related leave, if not all of the undertaking’s employees are entitled to family-related leave through social policy and/or collective bargaining agreements</t>
+  </si>
+  <si>
+    <t>percentage of entitled employees that took family-related leave</t>
+  </si>
+  <si>
+    <t>percentage of entitled employees that took family-related leave breakdown by gender</t>
+  </si>
+  <si>
+    <t>total number of employees entitled to parental leave</t>
+  </si>
+  <si>
+    <t>total number of employees entitled to parental leave, broken down by gender</t>
+  </si>
+  <si>
+    <t>total number of employees that took parental leave</t>
+  </si>
+  <si>
+    <t>total number of employees that took parental leave, broken down by gender</t>
+  </si>
+  <si>
+    <t>total number of employees that returned to work in the reporting period after parental leave ended</t>
+  </si>
+  <si>
+    <t>total number of employees that returned to work in the reporting period after parental leave ended, broken down by gender</t>
+  </si>
+  <si>
+    <t>total number of employees that returned to work after parental leave ended that were still employed 12 months after their return to work</t>
+  </si>
+  <si>
+    <t>total number of employees that returned to work after parental leave ended that were still employed 12 months after their return to work, broken down by gender</t>
+  </si>
+  <si>
+    <t>rate of employees that returned to work in the reporting period after parental leave ended</t>
+  </si>
+  <si>
+    <t>rate of employees that returned to work in the reporting period after parental leave ended, broken down by gender</t>
+  </si>
+  <si>
+    <t>rate of employees that returned to work in the reporting period after parental leave ended that were still employed 12 months after their return to work</t>
+  </si>
+  <si>
+    <t>rate of employees that returned to work in the reporting period after parental leave ended that were still employed 12 months after their return to work, broken down by gender</t>
+  </si>
+  <si>
+    <t>benefits which are standard for full-time employees of the organization but are not provided to temporary or part-time employees, by significant locations of operation (as a minimum: life insurance, health care, disability and invalidity coverage, parental leave, retirement provision, stock ownership, others)</t>
+  </si>
+  <si>
+    <t>how a 'significant location of operation' is defined for 401-2a</t>
+  </si>
+  <si>
+    <t>number of complaints filed through channels for people in the undertaking's own workforce to raise concerns (including grievance mechanisms), excluding those already reported as incidents of discrimination</t>
+  </si>
+  <si>
+    <t>a reconciliation of monetary amounts (fines, penalties and compensation for damages)as a result of incidents and complaints reported disclosed with the most relevant amount presented in the financial statements</t>
+  </si>
+  <si>
+    <t>number of severe human rights incidents connected to the undertaking's workforce in the reporting period</t>
+  </si>
+  <si>
+    <t>an indication of how many of these severe human rights incidents are cases of non-respect of the UN Guiding Principles on Business and Human Rights, ILO Declaration on Fundamental Principles and Rights at Work or OECD Guidelines for Multinational Enterprises.</t>
+  </si>
+  <si>
+    <t>number of severe human rights incidents where the undertaking played a role securing remedy for those affected during the reporting period</t>
   </si>
 </sst>
 </file>
@@ -1214,19 +1366,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1277,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1289,8 +1441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1303,16 +1454,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1650,263 +1822,266 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B20"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="73.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="58" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>367</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>368</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>369</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>370</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>371</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>372</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>373</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>374</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>375</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>376</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>377</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>378</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>379</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>380</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>381</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D18" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="11" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
@@ -1964,7 +2139,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -1992,13 +2167,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -2006,7 +2181,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
@@ -2017,7 +2192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
@@ -2028,27 +2203,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>411</v>
       </c>
       <c r="C8" t="s">
         <v>102</v>
@@ -2067,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -2078,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -2089,7 +2264,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
@@ -2100,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>415</v>
       </c>
       <c r="C12" t="s">
         <v>102</v>
@@ -2111,7 +2286,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
         <v>102</v>
@@ -2122,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -2133,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
         <v>102</v>
@@ -2144,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>217</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
         <v>102</v>
@@ -2155,7 +2330,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
         <v>102</v>
@@ -2166,27 +2341,27 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>219</v>
+        <v>421</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>220</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>221</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
@@ -2253,216 +2428,219 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B16"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="114.140625" customWidth="1"/>
-    <col min="4" max="4" width="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="114.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="68" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>187</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>424</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>188</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>189</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+        <v>425</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>426</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>427</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D12" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B16" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D18">
@@ -2519,496 +2697,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7AF1E-D1F1-40AA-B38E-32E7799526C3}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="106.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="2" max="2" width="106.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="70.28515625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>339</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>340</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>341</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>342</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>343</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="13" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>344</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+        <v>345</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+        <v>346</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>347</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>348</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>349</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>350</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+        <v>351</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+        <v>352</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+        <v>353</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+        <v>354</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D18" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="D19" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:4" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -3069,174 +3250,176 @@
       <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B11"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="114.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="3" width="114.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>301</v>
+      <c r="B6" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>302</v>
+      <c r="B7" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>303</v>
+      <c r="B8" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D8" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>304</v>
+      <c r="B10" s="12" t="s">
+        <v>338</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
@@ -3291,1333 +3474,1459 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6623FD9D-4795-4A2A-A9E9-AB971D5DE20F}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="116.42578125" customWidth="1"/>
-    <col min="2" max="2" width="107.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="107.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="9" customWidth="1"/>
     <col min="5" max="5" width="57.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="16">
+        <v>6616</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="16">
+        <v>7566</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="16">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="16">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16">
+        <v>10</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="16">
+        <v>6466</v>
+      </c>
+      <c r="C12" s="16">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16">
+        <v>12</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="16">
+        <v>13</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="16">
+        <v>14</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16">
+        <v>16</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16">
+        <v>17</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="16">
+        <v>150</v>
+      </c>
+      <c r="C19" s="16">
+        <v>18</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="16">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="16">
+        <v>20</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="16">
+        <v>21</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16">
+        <v>22</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16">
+        <v>23</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16">
+        <v>24</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="16">
+        <v>25</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="16">
+        <v>26</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16">
+        <v>27</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16">
+        <v>28</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16">
+        <v>29</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16">
+        <v>30</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16">
+        <v>31</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16">
+        <v>32</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16">
+        <v>33</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="16">
+        <v>6558</v>
+      </c>
+      <c r="C35" s="16">
+        <v>34</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16">
+        <v>35</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="16">
+        <v>36</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="16">
+        <v>37</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16">
+        <v>38</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="16">
+        <v>39</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <v>58</v>
+      </c>
+      <c r="C41" s="16">
+        <v>40</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16">
+        <v>41</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="16">
+        <v>42</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C44" s="16">
+        <v>43</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="16">
+        <v>44</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16">
+        <v>45</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16">
+        <v>46</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16">
+        <v>47</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16">
+        <v>48</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16">
+        <v>49</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="16">
+        <v>50</v>
+      </c>
+      <c r="D51" s="16"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="16">
+        <v>51</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C53" s="16">
+        <v>52</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <v>53</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="16">
+        <v>54</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="16">
+        <v>55</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="10">
-        <v>6616</v>
-      </c>
-      <c r="C2" s="10">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C57" s="16">
+        <v>56</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="16">
+        <v>1253</v>
+      </c>
+      <c r="C58" s="16">
+        <v>57</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.189</v>
+      </c>
+      <c r="C59" s="16">
+        <v>58</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="17">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C60" s="16">
+        <v>59</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="16">
+        <v>60</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="16">
+        <v>61</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="16">
+        <v>62</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="16">
+        <v>63</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="16">
+        <v>64</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="16">
+        <v>65</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B67" s="16">
+        <v>157</v>
+      </c>
+      <c r="C67" s="16">
+        <v>66</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16">
+        <v>67</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16">
+        <v>68</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16">
+        <v>69</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16">
+        <v>70</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16">
+        <v>71</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16">
+        <v>72</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16">
+        <v>73</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16">
+        <v>74</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16">
+        <v>75</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16">
+        <v>76</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C78" s="16">
+        <v>77</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="16">
+        <v>78</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="16">
+        <v>79</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="16">
+        <v>80</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16">
+        <v>81</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="16">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="C83" s="16">
+        <v>82</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="16">
+        <v>54.35</v>
+      </c>
+      <c r="C84" s="16">
+        <v>83</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="16">
+        <v>9.92</v>
+      </c>
+      <c r="C85" s="16">
+        <v>84</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="16">
+        <v>2364</v>
+      </c>
+      <c r="C86" s="16">
+        <v>85</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="16">
+        <v>3596</v>
+      </c>
+      <c r="C87" s="16">
+        <v>86</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="16">
+        <v>656</v>
+      </c>
+      <c r="C88" s="16">
+        <v>87</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="10">
-        <v>7566</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="10">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="10">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" s="10">
-        <v>6466</v>
-      </c>
-      <c r="C12" s="10">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C89" s="16">
+        <v>88</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" s="16">
+        <v>89</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C13" s="10">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C14" s="10">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>353</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C15" s="10">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="10">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="10">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C18" s="10">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C91" s="16">
+        <v>90</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16">
+        <v>91</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16">
+        <v>92</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B19" s="10">
-        <v>150</v>
-      </c>
-      <c r="C19" s="10">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>358</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C20" s="10">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="10">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="10">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C23" s="10">
-        <v>22</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>362</v>
-      </c>
-      <c r="C24" s="10">
-        <v>23</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>363</v>
-      </c>
-      <c r="C25" s="10">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>364</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="10">
-        <v>25</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27" s="10">
-        <v>26</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10">
-        <v>27</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10">
-        <v>28</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="10">
-        <v>29</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="10">
-        <v>30</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="10">
-        <v>31</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>306</v>
-      </c>
-      <c r="C33" s="10">
-        <v>32</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>365</v>
-      </c>
-      <c r="C34" s="10">
-        <v>33</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10">
-        <v>6558</v>
-      </c>
-      <c r="C35" s="10">
-        <v>34</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="10">
-        <v>35</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>366</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C37" s="10">
-        <v>36</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" s="10">
-        <v>37</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>368</v>
-      </c>
-      <c r="C39" s="10">
-        <v>38</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="10">
-        <v>39</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="10">
-        <v>58</v>
-      </c>
-      <c r="C41" s="10">
-        <v>40</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="10">
-        <v>41</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>370</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="10">
-        <v>42</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>371</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" s="10">
-        <v>43</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>372</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="10">
-        <v>44</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>373</v>
-      </c>
-      <c r="C46" s="10">
-        <v>45</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>374</v>
-      </c>
-      <c r="C47" s="10">
-        <v>46</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="10">
-        <v>47</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="10">
-        <v>48</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="10">
-        <v>49</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C94" s="16">
+        <v>93</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="16">
+        <v>94</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16">
+        <v>95</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16">
+        <v>96</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C51" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" s="10">
-        <v>51</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C53" s="10">
-        <v>52</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="13">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C54" s="10">
-        <v>53</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C55" s="10">
-        <v>54</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C56" s="10">
-        <v>55</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57" s="10">
-        <v>56</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="10">
-        <v>1253</v>
-      </c>
-      <c r="C58" s="10">
-        <v>57</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="13">
-        <v>0.189</v>
-      </c>
-      <c r="C59" s="10">
-        <v>58</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="13">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="C60" s="10">
-        <v>59</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C61" s="10">
-        <v>60</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C62" s="10">
-        <v>61</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63" s="10">
-        <v>62</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C64" s="10">
-        <v>63</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C65" s="10">
-        <v>64</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="10">
-        <v>65</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>375</v>
-      </c>
-      <c r="B67" s="10">
-        <v>157</v>
-      </c>
-      <c r="C67" s="10">
-        <v>66</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68" s="10">
-        <v>67</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C69" s="10">
-        <v>68</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="10">
-        <v>69</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="10">
-        <v>70</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="10">
-        <v>71</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="10">
-        <v>72</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" s="10">
-        <v>73</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>324</v>
-      </c>
-      <c r="C75" s="10">
-        <v>74</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" s="10">
-        <v>75</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="10">
-        <v>76</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>325</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="10">
-        <v>77</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C79" s="10">
-        <v>78</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C80" s="10">
-        <v>79</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C81" s="10">
-        <v>80</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>326</v>
-      </c>
-      <c r="C82" s="10">
-        <v>81</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="10">
-        <v>35.729999999999997</v>
-      </c>
-      <c r="C83" s="10">
-        <v>82</v>
-      </c>
-      <c r="D83" s="10" t="s">
+      <c r="B98" s="16"/>
+      <c r="C98" s="16">
+        <v>97</v>
+      </c>
+      <c r="D98" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="10">
-        <v>54.35</v>
-      </c>
-      <c r="C84" s="10">
-        <v>83</v>
-      </c>
-      <c r="D84" s="10" t="s">
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="16">
+        <v>98</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="10">
-        <v>9.92</v>
-      </c>
-      <c r="C85" s="10">
-        <v>84</v>
-      </c>
-      <c r="D85" s="10" t="s">
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16">
+        <v>99</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="10">
-        <v>2364</v>
-      </c>
-      <c r="C86" s="10">
-        <v>85</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="10">
-        <v>3596</v>
-      </c>
-      <c r="C87" s="10">
-        <v>86</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="10">
-        <v>656</v>
-      </c>
-      <c r="C88" s="10">
-        <v>87</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>296</v>
-      </c>
-      <c r="C89" s="10">
-        <v>88</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="10">
-        <v>89</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>327</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="10">
-        <v>90</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92" s="10">
-        <v>91</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C93" s="10">
-        <v>92</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C94" s="10">
-        <v>93</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>328</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C95" s="10">
-        <v>94</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="10">
-        <v>95</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="10">
-        <v>96</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>308</v>
-      </c>
-      <c r="C98" s="10">
-        <v>97</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C99" s="10">
-        <v>98</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" s="10">
-        <v>99</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>299</v>
-      </c>
+      <c r="E100" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4643,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,7 +4972,7 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4787,8 +5096,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -4801,7 +5110,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,8 +5157,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+    <row r="20" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4862,7 +5171,7 @@
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,8 +5229,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+    <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -4934,7 +5243,7 @@
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4992,8 +5301,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -5006,7 +5315,7 @@
         <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,8 +5373,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
+    <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -5078,7 +5387,7 @@
         <v>105</v>
       </c>
       <c r="D42" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5136,8 +5445,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
+    <row r="48" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -5150,7 +5459,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,8 +5528,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
+    <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -5324,8 +5633,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
+    <row r="66" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -5338,7 +5647,7 @@
         <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5396,8 +5705,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
+    <row r="73" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -5410,7 +5719,7 @@
         <v>106</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,8 +5843,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
+    <row r="86" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -5548,7 +5857,7 @@
         <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,8 +5904,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
+    <row r="92" spans="1:4" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -5609,7 +5918,7 @@
         <v>109</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,13 +6179,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -5934,11 +6243,11 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5962,11 +6271,11 @@
         <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6001,7 +6310,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6074,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6403,7 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -6130,10 +6439,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6144,7 +6453,7 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,8 +6577,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6282,7 +6591,7 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,8 +6770,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -6475,7 +6784,7 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -6534,10 +6843,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
@@ -6595,7 +6904,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6609,13 +6918,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -6629,7 +6938,7 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,8 +7018,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
+    <row r="10" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -6723,7 +7032,7 @@
         <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6770,7 +7079,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6806,8 +7115,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6820,7 +7129,7 @@
         <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
@@ -6900,589 +7209,592 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E144C5-3C90-49A7-BF19-C4C07582D032}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B49"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="85.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="19"/>
+    <col min="2" max="2" width="85.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="65" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>385</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14">
+        <v>386</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C28" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="21" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C38" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C39" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>317</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>319</v>
-      </c>
-      <c r="C22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C41" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C42" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C43" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C44" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C45" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C46" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C47" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">

--- a/Temenos.xlsx
+++ b/Temenos.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhvi\OneDrive\Desktop\Coding\giongion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giang\Desktop\bachelorarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC4079-ACEA-4295-BF96-E88592999275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074F7297-FDB8-4454-A22F-43983E51DD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="813" activeTab="1" xr2:uid="{917B03BB-9AC6-47C1-A01F-7CA6C1D79E36}"/>
+    <workbookView xWindow="-96" yWindow="13824" windowWidth="11712" windowHeight="12336" tabRatio="813" firstSheet="1" activeTab="1" xr2:uid="{917B03BB-9AC6-47C1-A01F-7CA6C1D79E36}"/>
   </bookViews>
   <sheets>
     <sheet name="training1" sheetId="12" r:id="rId1"/>
     <sheet name="compensation1" sheetId="11" r:id="rId2"/>
-    <sheet name="collective bargaining1" sheetId="10" r:id="rId3"/>
-    <sheet name="characteristics1" sheetId="9" r:id="rId4"/>
-    <sheet name="Characteristics" sheetId="1" r:id="rId5"/>
-    <sheet name="Collective bargaining" sheetId="2" r:id="rId6"/>
-    <sheet name="Compensation" sheetId="3" r:id="rId7"/>
+    <sheet name="Compensation" sheetId="3" r:id="rId3"/>
+    <sheet name="collective bargaining1" sheetId="10" r:id="rId4"/>
+    <sheet name="characteristics1" sheetId="9" r:id="rId5"/>
+    <sheet name="Characteristics" sheetId="1" r:id="rId6"/>
+    <sheet name="Collective bargaining" sheetId="2" r:id="rId7"/>
     <sheet name="Training" sheetId="4" r:id="rId8"/>
     <sheet name="Health and Safety" sheetId="5" r:id="rId9"/>
     <sheet name="Work Life Balance" sheetId="6" r:id="rId10"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="431">
   <si>
     <t>STT</t>
   </si>
@@ -1336,6 +1336,12 @@
   </si>
   <si>
     <t>number of severe human rights incidents where the undertaking played a role securing remedy for those affected during the reporting period</t>
+  </si>
+  <si>
+    <t>disclosure whether all its employees are paid an adequate wage, in line with applicable benchmarks</t>
+  </si>
+  <si>
+    <t>externally audited percentage of own workforce covered by a health and safety management system based on legal requirements, recognised standards or guidelines</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1485,6 +1491,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1822,7 +1831,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2138,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894557A2-7484-4A90-BFF3-6BD42608F5E5}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2437,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2697,8 +2706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB7AF1E-D1F1-40AA-B38E-32E7799526C3}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2724,12 +2733,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>99</v>
@@ -2753,7 +2762,7 @@
       <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="23" t="s">
         <v>341</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -3243,14 +3252,549 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E89A17-F8B6-47CD-B2A0-A40E64A5CBF2}">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+    <sortCondition ref="C2:C44"/>
+  </sortState>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1FD3D7C-EDA4-49B3-8507-A693A736E850}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1FD3D7C-EDA4-49B3-8507-A693A736E850}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE422807-8FAD-40A9-9C1A-4638DF92C414}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="19" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="19" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A11"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3472,13 +4016,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6623FD9D-4795-4A2A-A9E9-AB971D5DE20F}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2:C100"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4071B1A5-6CF7-4075-B4ED-9BCCA60BCE17}">
   <dimension ref="A1:D110"/>
   <sheetViews>
@@ -6159,7 +6703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0264CD-C0E8-411F-88A6-7231CEBE93EE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6347,541 +6891,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{90A35D08-09E1-489F-9C64-9693A8389AC7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C1</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E89A17-F8B6-47CD-B2A0-A40E64A5CBF2}">
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="106.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>19</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>30</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
-    <sortCondition ref="C2:C44"/>
-  </sortState>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1FD3D7C-EDA4-49B3-8507-A693A736E850}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1FD3D7C-EDA4-49B3-8507-A693A736E850}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7209,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E144C5-3C90-49A7-BF19-C4C07582D032}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7277,7 +7286,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>279</v>
+        <v>430</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>99</v>
